--- a/BangKeHoach-DoAnCuoiKyCTDL .xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9275" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9335" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>KẾ HOẠCH THỰC HIỆN ĐỒ ÁN CUỐI KỲ MÔN CẤU TRÚC DỮ LIỆU &amp; GIẢI THUẬT - 2019</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>27/10/2019</t>
-  </si>
-  <si>
-    <t>Chưa kết thúc</t>
   </si>
 </sst>
 </file>
@@ -127,11 +124,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="d/m/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="d/m/yyyy;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -164,31 +161,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,8 +182,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,9 +223,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,18 +258,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,10 +275,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,38 +291,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,13 +320,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,25 +452,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,133 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,23 +517,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,8 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,16 +574,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,148 +614,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -766,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -775,7 +772,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -786,7 +783,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1152,7 +1149,7 @@
   <dimension ref="A1:W1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -1374,7 +1371,9 @@
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1489,9 +1488,7 @@
       <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
@@ -1527,9 +1524,7 @@
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
@@ -1576,9 +1571,7 @@
       <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1599,9 +1592,7 @@
       <c r="C14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
@@ -1622,9 +1613,7 @@
       <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="D15" s="11"/>
       <c r="E15" s="9" t="s">
         <v>28</v>
       </c>
@@ -1642,9 +1631,7 @@
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
@@ -1680,8 +1667,8 @@
       <c r="G17" s="9">
         <v>43779</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>34</v>
+      <c r="H17" s="9">
+        <v>43779</v>
       </c>
     </row>
     <row r="18" ht="19.5" customHeight="1"/>
